--- a/Zdetl Correlative Words.xlsx
+++ b/Zdetl Correlative Words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392D80C7-7A27-44AE-A03F-0D612BE2446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE404506-2985-4D7A-8037-A1FB0C0E2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30945" yWindow="2085" windowWidth="18045" windowHeight="10035" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
+    <workbookView xWindow="30510" yWindow="1650" windowWidth="17280" windowHeight="8970" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlative Words" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Zdetl Correlative Words</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>Kind or Type (-ochti)</t>
+  </si>
+  <si>
+    <t>Any (zi-)</t>
+  </si>
+  <si>
+    <t>zi-tetl</t>
+  </si>
+  <si>
+    <t>zi-ad</t>
+  </si>
+  <si>
+    <t>zi-zhia</t>
+  </si>
+  <si>
+    <t>zi-qez</t>
+  </si>
+  <si>
+    <t>zi-patle</t>
+  </si>
+  <si>
+    <t>zi-qenta</t>
+  </si>
+  <si>
+    <t>zi-qik</t>
+  </si>
+  <si>
+    <t>zi-adl</t>
+  </si>
+  <si>
+    <t>zi-ochti</t>
   </si>
 </sst>
 </file>
@@ -281,13 +311,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F02EF-6620-4665-9DA6-9AA40A77A4C6}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,217 +650,248 @@
     <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zdetl Correlative Words.xlsx
+++ b/Zdetl Correlative Words.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE404506-2985-4D7A-8037-A1FB0C0E2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D40BEA-12EA-46A2-A37F-591E9E4683A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1650" windowWidth="17280" windowHeight="8970" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlative Words" sheetId="1" r:id="rId1"/>
+    <sheet name="Verb conjugations and endings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Zdetl Correlative Words</t>
   </si>
@@ -244,6 +245,108 @@
   </si>
   <si>
     <t>zi-ochti</t>
+  </si>
+  <si>
+    <t>Most verbs in Zdetl follow a standardized or simplified conjugation pattern.</t>
+  </si>
+  <si>
+    <t>There are exceptions, but these will be rare.</t>
+  </si>
+  <si>
+    <t>Verb tense is noted by a suffix.</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>-ia</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>-ie</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>-re</t>
+  </si>
+  <si>
+    <t>imperative</t>
+  </si>
+  <si>
+    <t>-zhda</t>
+  </si>
+  <si>
+    <t>conditional</t>
+  </si>
+  <si>
+    <t>-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: </t>
+  </si>
+  <si>
+    <t>chedl'</t>
+  </si>
+  <si>
+    <t>(v inf)</t>
+  </si>
+  <si>
+    <t>to guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chedl </t>
+  </si>
+  <si>
+    <t>(n)</t>
+  </si>
+  <si>
+    <t>The infinitive of most verbs ends in "-e^" (I followed by glottal stop).</t>
+  </si>
+  <si>
+    <t>chedle'</t>
+  </si>
+  <si>
+    <t>a guard</t>
+  </si>
+  <si>
+    <t>(n, pl)</t>
+  </si>
+  <si>
+    <t>two or more guards; collective noun guardians</t>
+  </si>
+  <si>
+    <t>chedlia</t>
+  </si>
+  <si>
+    <t>is guarding</t>
+  </si>
+  <si>
+    <t>chedlie</t>
+  </si>
+  <si>
+    <t>guarded; was guarding</t>
+  </si>
+  <si>
+    <t>chedlre</t>
+  </si>
+  <si>
+    <t>will guard</t>
+  </si>
+  <si>
+    <t>chedlzhda</t>
+  </si>
+  <si>
+    <t>guard that!</t>
+  </si>
+  <si>
+    <t>chedla</t>
+  </si>
+  <si>
+    <t>guard (if a condition is met)</t>
   </si>
 </sst>
 </file>
@@ -311,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -320,6 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F02EF-6620-4665-9DA6-9AA40A77A4C6}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,4 +1000,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E3EC7A-5F5E-4770-9DB6-741D4FCDAD13}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zdetl Correlative Words.xlsx
+++ b/Zdetl Correlative Words.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D40BEA-12EA-46A2-A37F-591E9E4683A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A0E07-4C27-4672-882E-AF42C4418D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlative Words" sheetId="1" r:id="rId1"/>
     <sheet name="Verb conjugations and endings" sheetId="2" r:id="rId2"/>
+    <sheet name="Pronouns etc." sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Zdetl Correlative Words</t>
   </si>
@@ -347,13 +348,157 @@
   </si>
   <si>
     <t>guard (if a condition is met)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>first person singular</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>first person plural</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>second person singular</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>y'all</t>
+  </si>
+  <si>
+    <t>second person plural</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>he/she/it</t>
+  </si>
+  <si>
+    <t>third person singular</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Standard forms</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>third person plural</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>reflexive pronoun</t>
+  </si>
+  <si>
+    <t>non-specific "one"</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Possessive</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>zeo</t>
+  </si>
+  <si>
+    <t>add '-o'</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>deo</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>veo</t>
+  </si>
+  <si>
+    <t>y'all's</t>
+  </si>
+  <si>
+    <t>vio</t>
+  </si>
+  <si>
+    <t>his/hers/its</t>
+  </si>
+  <si>
+    <t>seo</t>
+  </si>
+  <si>
+    <t>theirs</t>
+  </si>
+  <si>
+    <t>yeo</t>
+  </si>
+  <si>
+    <t>one's</t>
+  </si>
+  <si>
+    <t>sio</t>
+  </si>
+  <si>
+    <t>Note: this can also be interpreted as the singular "they" in Anglic.</t>
+  </si>
+  <si>
+    <t>definite article</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>there is no indefinite article in Zdetl.</t>
+  </si>
+  <si>
+    <t>Pronouns, Articles, and other parts of speech</t>
+  </si>
+  <si>
+    <t>Verb infinitives typically end in "-e^"</t>
+  </si>
+  <si>
+    <t>Adverbs typically end in "-ie"</t>
+  </si>
+  <si>
+    <t>Adjectives typically end in "-o"</t>
+  </si>
+  <si>
+    <t>Nouns don't always follow a standard pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +518,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,16 +567,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,15 +909,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1006,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E3EC7A-5F5E-4770-9DB6-741D4FCDAD13}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1193,7 @@
       <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1047,7 +1201,7 @@
       <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1055,7 +1209,7 @@
       <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1063,7 +1217,7 @@
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1071,7 +1225,7 @@
       <c r="A10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1156,4 +1310,199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E93A080-B15E-42D7-976D-572542F311C1}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Zdetl Correlative Words.xlsx
+++ b/Zdetl Correlative Words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A0E07-4C27-4672-882E-AF42C4418D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A91DE2C-2EA8-451A-97BB-AFD0676A8C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8D6C5578-70E6-4DFE-83FE-5AE0AAF0D81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlative Words" sheetId="1" r:id="rId1"/>
@@ -574,10 +574,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,15 +909,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1328,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
     </row>
